--- a/Others/Cost Minimize.xlsx
+++ b/Others/Cost Minimize.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Hellodaffodils</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>EV sim</t>
+  </si>
+  <si>
+    <t>Mamun Sim Incentive</t>
+  </si>
+  <si>
+    <t>Sojol salary</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1% Less Jan'2021</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +159,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,21 +488,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -505,45 +520,45 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1617</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2049</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>2513</v>
+        <v>1617</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>5415</v>
+        <v>2513</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -551,114 +566,139 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6">
-        <v>1209</v>
+        <v>5415</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1209</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>250</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1550</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6">
-        <v>6000</v>
+        <v>1550</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10000</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1500</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="6">
-        <f>SUM(C4:C14)</f>
-        <v>33554</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(C4:C15)</f>
+        <v>40103</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
